--- a/res/test/sport.xlsx
+++ b/res/test/sport.xlsx
@@ -190,7 +190,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3"/>
     </row>
@@ -226,7 +226,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6"/>
     </row>
@@ -250,7 +250,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8"/>
     </row>
@@ -262,7 +262,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9"/>
     </row>
@@ -274,7 +274,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10"/>
     </row>

--- a/res/test/sport.xlsx
+++ b/res/test/sport.xlsx
@@ -190,7 +190,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3"/>
     </row>
@@ -226,7 +226,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6"/>
     </row>
@@ -250,7 +250,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8"/>
     </row>
@@ -262,7 +262,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9"/>
     </row>
@@ -274,7 +274,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10"/>
     </row>
